--- a/RUDN/Importance/Varible_f_class_in_Caribbean.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_Caribbean.xlsx
@@ -1686,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>249350.7994010399</v>
+        <v>249350.7994013887</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>41356.06673061675</v>
+        <v>41356.06673062622</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>959.8472569533919</v>
+        <v>959.8472569530812</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>803.0306474890365</v>
+        <v>803.0306474890402</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>667.5169842601655</v>
+        <v>667.5169842601684</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>581.280573196942</v>
+        <v>581.2805731969102</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>484.4779010683757</v>
+        <v>484.477901068295</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>399.6579192889836</v>
+        <v>399.6579192889847</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>399.6579192889836</v>
+        <v>399.6579192889847</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>383.9260758076333</v>
+        <v>383.9260758076327</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>367.0258589950835</v>
+        <v>367.025858995094</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>339.5885440126762</v>
+        <v>339.5885440126768</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>220.3847177925806</v>
+        <v>220.3847177925709</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>208.4603873488934</v>
+        <v>208.4603873488939</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>141.736004367537</v>
+        <v>141.7360043675408</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>123.3008998886717</v>
+        <v>123.3008998886716</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>121.0051564920018</v>
+        <v>121.0051564920026</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>95.22276454919327</v>
+        <v>95.22276454919334</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>91.0718848226018</v>
+        <v>91.0718848226014</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>84.82517550592631</v>
+        <v>84.82517550592628</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>81.37277474613154</v>
+        <v>81.37277474613039</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>80.62012869298459</v>
+        <v>80.6201286929836</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>76.93819189431126</v>
+        <v>76.93819189431174</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>76.85825373840753</v>
+        <v>76.85825373840741</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>76.85825373840753</v>
+        <v>76.85825373840741</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>73.83963351397746</v>
+        <v>73.83963351397682</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>72.52390331619188</v>
+        <v>72.52390331619202</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>70.98620767730291</v>
+        <v>70.98620767730311</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>70.34184828882253</v>
+        <v>70.34184828882204</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>70.03311452916937</v>
+        <v>70.03311452916923</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>69.6748605049345</v>
+        <v>69.6748605049342</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>62.20058206481461</v>
+        <v>62.2005820648125</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>60.36787475831747</v>
+        <v>60.36787475831764</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>59.61261714458508</v>
+        <v>59.6126171445848</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>58.26181376436861</v>
+        <v>58.26181376436866</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>57.58641712793818</v>
+        <v>57.58641712793695</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>56.89772600023556</v>
+        <v>56.89772600021028</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>55.07749293636092</v>
+        <v>55.07749293636181</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>54.26841667656969</v>
+        <v>54.26841667656892</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>54.05870811051994</v>
+        <v>54.05870811050535</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>53.36594641916407</v>
+        <v>53.36594641916422</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>47.88581534395806</v>
+        <v>47.88581534395745</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>47.85854812331647</v>
+        <v>47.85854812331624</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>43.72699778825948</v>
+        <v>43.72699778825927</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>41.45539386580651</v>
+        <v>41.45539386580654</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>40.39646933734712</v>
+        <v>40.39646933734709</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>39.49762680166324</v>
+        <v>39.49762680166322</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>38.77273739232341</v>
+        <v>38.77273739232339</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>38.084935233565</v>
+        <v>38.08493523356502</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>37.07769993480332</v>
+        <v>37.0776999348033</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>37.05657659569543</v>
+        <v>37.05657659569541</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>36.88431909419924</v>
+        <v>36.88431909419925</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>36.80896290819953</v>
+        <v>36.80896290819952</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>35.72583127131099</v>
+        <v>35.72583127131102</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>35.62803100278284</v>
+        <v>35.62803100278282</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>35.05544154001247</v>
+        <v>35.05544154001245</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>32.01071557176471</v>
+        <v>32.01071557176473</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>31.82552667780761</v>
+        <v>31.82552667780763</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>31.48817033406508</v>
+        <v>31.4881703340651</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>31.17315601668644</v>
+        <v>31.17315601668646</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>31.04202420869174</v>
+        <v>31.04202420869177</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>30.71229138792965</v>
+        <v>30.71229138793001</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>30.64714083652284</v>
+        <v>30.64714083652282</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>30.57641405787865</v>
+        <v>30.57641405787862</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>30.2729580765061</v>
+        <v>30.27295807650592</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>30.05714120415975</v>
+        <v>30.05714120415977</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3259,7 +3259,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>30.03546871562445</v>
+        <v>30.03546871562443</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>28.77701212140458</v>
+        <v>28.7770121214046</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>28.6499001557356</v>
+        <v>28.64990015573691</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>28.06760458820417</v>
+        <v>28.06760458820365</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>27.65935519146842</v>
+        <v>27.65935519146844</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>26.11957572690375</v>
+        <v>26.11957572690391</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>26.08922887513054</v>
+        <v>26.08922887513052</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>25.32713188999919</v>
+        <v>25.32713188999941</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>24.16262564933902</v>
+        <v>24.16262564933909</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>24.11537652317387</v>
+        <v>24.11537652317388</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>24.10088896016354</v>
+        <v>24.10088896016356</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>23.00755069987975</v>
+        <v>23.00755069988013</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>23.00223625126266</v>
+        <v>23.00223625126268</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>23.00223625126266</v>
+        <v>23.00223625126268</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>22.99209669258248</v>
+        <v>22.99209669258249</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>22.96676765331087</v>
+        <v>22.96676765331089</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>22.89154315810074</v>
+        <v>22.89154315810075</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>22.40947030139026</v>
+        <v>22.40947030138947</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>22.14699973528151</v>
+        <v>22.14699973528118</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>21.96380313709266</v>
+        <v>21.96380313709268</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>21.77743132115246</v>
+        <v>21.77743132115247</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>21.39190703703269</v>
+        <v>21.39190703703309</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>21.3308679092008</v>
+        <v>21.33086790920081</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>21.1954756171528</v>
+        <v>21.19547561715278</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>20.92615116862861</v>
+        <v>20.9261511686286</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>20.84914841446695</v>
+        <v>20.84914841446693</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>20.56381122708243</v>
+        <v>20.56381122708241</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>20.56036759281524</v>
+        <v>20.56036759281523</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>20.45061262459344</v>
+        <v>20.45061262459346</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>20.34153033628025</v>
+        <v>20.34153033628026</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>20.33536871751454</v>
+        <v>20.33536871751455</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>19.94626371046871</v>
+        <v>19.94626371046868</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>19.4849286407473</v>
+        <v>19.48492864074712</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4337,7 +4337,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>19.01031852196599</v>
+        <v>19.010318521966</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>18.9371471902889</v>
+        <v>18.93714719028911</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>18.63414560949026</v>
+        <v>18.63414560949025</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>18.18246971338404</v>
+        <v>18.18246971338405</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>17.90529544510509</v>
+        <v>17.90529544510508</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>16.85165040053518</v>
+        <v>16.85165040053519</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>16.83767031449481</v>
+        <v>16.83767031449479</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>16.80524891684195</v>
+        <v>16.80524891684196</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4590,7 +4590,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>16.52871916251961</v>
+        <v>16.52871916251963</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>16.5247092975191</v>
+        <v>16.52470929751911</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>16.08077081065723</v>
+        <v>16.08077081065724</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>16.08077081065723</v>
+        <v>16.08077081065724</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>16.03699291022121</v>
+        <v>16.03699291022147</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>15.44412124573118</v>
+        <v>15.44412124573117</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>14.87990466451217</v>
+        <v>14.87990466451216</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>14.73792300232355</v>
+        <v>14.73792300232357</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>13.66739551180609</v>
+        <v>13.6673955118061</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>13.17116108097757</v>
+        <v>13.17116108097758</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>12.93513295530606</v>
+        <v>12.93513295530607</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>12.60177797107928</v>
+        <v>12.60177797107927</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>12.58309176465437</v>
+        <v>12.58309176465438</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>12.57887712026481</v>
+        <v>12.57887712026477</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -4997,7 +4997,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>12.40727599568486</v>
+        <v>12.40727599568485</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>12.34361684401676</v>
+        <v>12.34361684401671</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>12.05254625027444</v>
+        <v>12.05254625027445</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -5074,7 +5074,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>12.00587984818634</v>
+        <v>12.00587984818633</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -5118,7 +5118,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>11.97040710032682</v>
+        <v>11.97040710032684</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>11.96902535641639</v>
+        <v>11.9690253564164</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>11.96311594203606</v>
+        <v>11.96311594203607</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>11.89469670717001</v>
+        <v>11.89469670717003</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>11.85848561640752</v>
+        <v>11.85848561640751</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>11.85848561640752</v>
+        <v>11.85848561640751</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>11.855941417177</v>
+        <v>11.85594141717698</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -5239,7 +5239,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>11.85371956469679</v>
+        <v>11.85371956469678</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>326</v>
       </c>
       <c r="B326">
-        <v>11.85371956469679</v>
+        <v>11.85371956469678</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>11.8532365523511</v>
+        <v>11.85323655235108</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>11.8532365523511</v>
+        <v>11.85323655235108</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>11.85321033232792</v>
+        <v>11.85321033232791</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>11.85321033232792</v>
+        <v>11.85321033232791</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -5448,7 +5448,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>11.58861679712464</v>
+        <v>11.58861679712462</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>11.55729094764906</v>
+        <v>11.55729094764904</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>11.50579432370143</v>
+        <v>11.50579432370145</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5503,7 +5503,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>11.44273412825028</v>
+        <v>11.44273412825029</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>11.44273412825028</v>
+        <v>11.44273412825029</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>11.03822186970898</v>
+        <v>11.03822186970897</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>10.8405841576924</v>
+        <v>10.84058415769242</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>10.27610818606463</v>
+        <v>10.27610818606414</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -5635,7 +5635,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>9.617414662181615</v>
+        <v>9.617414662181616</v>
       </c>
       <c r="C361">
         <v>1e-05</v>
@@ -5646,7 +5646,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>9.552919890038693</v>
+        <v>9.55291989003868</v>
       </c>
       <c r="C362">
         <v>1e-05</v>
@@ -5657,7 +5657,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>9.312124926936365</v>
+        <v>9.312124926936386</v>
       </c>
       <c r="C363">
         <v>1e-05</v>
@@ -5668,7 +5668,7 @@
         <v>364</v>
       </c>
       <c r="B364">
-        <v>9.012709279540942</v>
+        <v>9.012709279540939</v>
       </c>
       <c r="C364">
         <v>2e-05</v>
@@ -5690,7 +5690,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>8.913004931334353</v>
+        <v>8.913004931334335</v>
       </c>
       <c r="C366">
         <v>2e-05</v>
@@ -5701,7 +5701,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>8.908149644426945</v>
+        <v>8.90814964442694</v>
       </c>
       <c r="C367">
         <v>2e-05</v>
@@ -5712,7 +5712,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>8.884032833595398</v>
+        <v>8.884032833594171</v>
       </c>
       <c r="C368">
         <v>2e-05</v>
@@ -5723,7 +5723,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>8.773775847715527</v>
+        <v>8.773775847715514</v>
       </c>
       <c r="C369">
         <v>2e-05</v>
@@ -5778,7 +5778,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>8.438011441604747</v>
+        <v>8.438011441604743</v>
       </c>
       <c r="C374">
         <v>3e-05</v>
@@ -5855,7 +5855,7 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>7.674329030272524</v>
+        <v>7.674329030272538</v>
       </c>
       <c r="C381">
         <v>9.000000000000001e-05</v>
@@ -5888,7 +5888,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>7.58137938144878</v>
+        <v>7.581379381450274</v>
       </c>
       <c r="C384">
         <v>0.0001</v>
@@ -5921,7 +5921,7 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>6.902886220166711</v>
+        <v>6.902886220166708</v>
       </c>
       <c r="C387">
         <v>0.00023</v>
@@ -5987,7 +5987,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>6.253424051667902</v>
+        <v>6.253424051667847</v>
       </c>
       <c r="C393">
         <v>0.00052</v>
@@ -5998,7 +5998,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>4.617344256898039</v>
+        <v>4.617344256898035</v>
       </c>
       <c r="C394">
         <v>0.00412</v>
@@ -6009,7 +6009,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>4.510857133198443</v>
+        <v>4.510857133198442</v>
       </c>
       <c r="C395">
         <v>0.00472</v>
@@ -6020,7 +6020,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>4.50890542455728</v>
+        <v>4.508905424557278</v>
       </c>
       <c r="C396">
         <v>0.00474</v>
@@ -6031,7 +6031,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>4.505935407090822</v>
+        <v>4.505935407090819</v>
       </c>
       <c r="C397">
         <v>0.00475</v>
@@ -6042,7 +6042,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>4.228526354390961</v>
+        <v>4.228526354390968</v>
       </c>
       <c r="C398">
         <v>0.00678</v>
@@ -6053,7 +6053,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>4.220004227292567</v>
+        <v>4.220004227292565</v>
       </c>
       <c r="C399">
         <v>0.00686</v>
@@ -6119,7 +6119,7 @@
         <v>405</v>
       </c>
       <c r="B405">
-        <v>4.212114543311275</v>
+        <v>4.212114543311277</v>
       </c>
       <c r="C405">
         <v>0.00693</v>
@@ -6185,7 +6185,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>4.212109191816934</v>
+        <v>4.21210919181696</v>
       </c>
       <c r="C411">
         <v>0.00693</v>
@@ -6207,7 +6207,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>4.212106711520472</v>
+        <v>4.21210671152047</v>
       </c>
       <c r="C413">
         <v>0.00693</v>
@@ -6240,7 +6240,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>4.212104556655971</v>
+        <v>4.21210455665597</v>
       </c>
       <c r="C416">
         <v>0.00693</v>
@@ -6262,7 +6262,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>4.212101492526329</v>
+        <v>4.212101492526327</v>
       </c>
       <c r="C418">
         <v>0.00693</v>
@@ -6339,7 +6339,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>4.211991255735889</v>
+        <v>4.211991255735886</v>
       </c>
       <c r="C425">
         <v>0.00693</v>
@@ -6350,7 +6350,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>4.211520161825804</v>
+        <v>4.211520161825801</v>
       </c>
       <c r="C426">
         <v>0.00693</v>
@@ -6361,7 +6361,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>4.211025703320385</v>
+        <v>4.211025703320415</v>
       </c>
       <c r="C427">
         <v>0.00694</v>
@@ -6394,7 +6394,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>3.9280218071453</v>
+        <v>3.928021807145297</v>
       </c>
       <c r="C430">
         <v>0.00997</v>
